--- a/biology/Botanique/Edmund_Davall/Edmund_Davall.xlsx
+++ b/biology/Botanique/Edmund_Davall/Edmund_Davall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmund Davall (né à Londres en août 1763 et mort à Orbe le 26 septembre 1798) est un botaniste helvetico-britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille de la petite noblesse militaire et parlementaire anglaise, il était fils d’un autre Edmund Davall (1737-1784), esquire, officier de l’approvisionnement dans l’amirauté anglaise et de Charlotte Thomasset (1728-1788), vaudoise native d'Agiez, qui émigra à Londres en 1749.
 Dès l’âge de 20 ans, Edmund Davall est passionné de botanique et il deviendra en peu de temps très versé dans cette science. Il arrive à Orbe (Suisse) pour des recherches botaniques avant le mois de février 1784. Il s’installe dans la maison familiale de ses nombreuses tantes Thomasset. Le 5 avril 1784, son père meurt à Londres, des suites d’une amputation de la jambe. Sa mère rentre alors en Suisse en août 1784 et s’installe à Orbe avec lui chez ses sœurs, où elle mourra le 11 novembre 1788.
@@ -552,7 +566,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cédric Rossier, Un destin au service de la patrie : Edmond Davall (1793-1860) entre conservatisme politique et avant-gardisme scientifique, 2003 — Mémoire de licence, Section d’histoire, Université de Lausanne
 Gavin Rylands de Beer, « Edmund Davall, F.L.S., an unwritten English chapter in the history of Swiss botany », Proceedings of the Linnean Society of London, vol. 159,‎ 1947, p. 42-65 — De même qu’un addendum final ajouté en 1949, vol. 160, p. 179-184 et “Edmund Davall’s note book”, vol. 161, 1949, p. 56-63</t>
